--- a/WebApplication1/wwwroot/UploadFolder/123.xlsx
+++ b/WebApplication1/wwwroot/UploadFolder/123.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utron\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7A87F4-7170-408F-A575-AE4EE169ABAF}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D368CF70-765D-4247-B60B-D98368214BC0}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22110" windowHeight="7785" xr2:uid="{5333CA46-AF07-4C1C-A20E-6961FADB2790}"/>
   </bookViews>
@@ -421,10 +421,16 @@
   <dimension ref="A1:E719"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
